--- a/designs/i18n-de/i18n-de-progress.xlsx
+++ b/designs/i18n-de/i18n-de-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\heikokue-node-red-designs\designs\i18n-de\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542AD0D1-2DF3-4D8B-9C76-9B6DF60DF0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{56D5C65D-9282-42F0-B5A7-90EC9D91A72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-120" windowWidth="49980" windowHeight="21840" xr2:uid="{BBE6853E-83EE-46DB-AB5D-CEB4AC5F861C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="134">
   <si>
     <t>Repository</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>DE translation reworked</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -800,8 +803,8 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +854,7 @@
         <v>128</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +874,7 @@
         <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,7 +894,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,10 +1611,10 @@
         <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,11 +1630,11 @@
       <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>129</v>
+      <c r="E41" t="s">
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,11 +1650,11 @@
       <c r="D42" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>129</v>
+      <c r="E42" t="s">
+        <v>128</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,11 +1670,11 @@
       <c r="D43" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>129</v>
+      <c r="E43" t="s">
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,11 +1690,11 @@
       <c r="D44" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>129</v>
+      <c r="E44" t="s">
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,11 +1710,11 @@
       <c r="D45" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>129</v>
+      <c r="E45" t="s">
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,11 +1730,11 @@
       <c r="D46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>129</v>
+      <c r="E46" t="s">
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,11 +1750,11 @@
       <c r="D47" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>129</v>
+      <c r="E47" t="s">
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,11 +1770,11 @@
       <c r="D48" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>129</v>
+      <c r="E48" t="s">
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,11 +1790,11 @@
       <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>129</v>
+      <c r="E49" t="s">
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,11 +1810,11 @@
       <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>129</v>
+      <c r="E50" t="s">
+        <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,11 +1830,11 @@
       <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>129</v>
+      <c r="E51" t="s">
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,11 +1850,11 @@
       <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>129</v>
+      <c r="E52" t="s">
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,11 +1870,11 @@
       <c r="D53" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>129</v>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,11 +1890,11 @@
       <c r="D54" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>129</v>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,11 +1910,11 @@
       <c r="D55" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>129</v>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,11 +1930,11 @@
       <c r="D56" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>129</v>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,11 +1950,11 @@
       <c r="D57" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>129</v>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,11 +1970,11 @@
       <c r="D58" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>129</v>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,11 +1990,11 @@
       <c r="D59" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>129</v>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,11 +2010,11 @@
       <c r="D60" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>129</v>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,11 +2030,11 @@
       <c r="D61" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>129</v>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,11 +2090,11 @@
       <c r="D64" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>129</v>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,11 +2110,11 @@
       <c r="D65" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>129</v>
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,11 +2130,11 @@
       <c r="D66" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>129</v>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,11 +2150,11 @@
       <c r="D67" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>129</v>
+      <c r="E67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,11 +2170,11 @@
       <c r="D68" t="s">
         <v>127</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>129</v>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,11 +2190,11 @@
       <c r="D69" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>129</v>
+      <c r="E69" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,11 +2210,11 @@
       <c r="D70" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>129</v>
+      <c r="E70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,11 +2230,11 @@
       <c r="D71" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>129</v>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,11 +2250,11 @@
       <c r="D72" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>129</v>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,11 +2270,11 @@
       <c r="D73" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>129</v>
+      <c r="E73" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,11 +2290,11 @@
       <c r="D74" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>129</v>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,11 +2310,11 @@
       <c r="D75" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>129</v>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,11 +2330,11 @@
       <c r="D76" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>129</v>
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,11 +2350,11 @@
       <c r="D77" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>129</v>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,11 +2370,11 @@
       <c r="D78" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>129</v>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,11 +2390,11 @@
       <c r="D79" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>129</v>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,11 +2410,11 @@
       <c r="D80" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>129</v>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,11 +2430,11 @@
       <c r="D81" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>129</v>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,11 +2450,11 @@
       <c r="D82" t="s">
         <v>127</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>129</v>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,11 +2470,11 @@
       <c r="D83" t="s">
         <v>127</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>129</v>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,11 +2490,11 @@
       <c r="D84" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>129</v>
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,11 +2510,11 @@
       <c r="D85" t="s">
         <v>127</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>129</v>
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2527,11 +2530,11 @@
       <c r="D86" t="s">
         <v>127</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>129</v>
+      <c r="E86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,11 +2550,11 @@
       <c r="D87" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>129</v>
+      <c r="E87" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,11 +2570,11 @@
       <c r="D88" t="s">
         <v>127</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>129</v>
+      <c r="E88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,11 +2590,11 @@
       <c r="D89" t="s">
         <v>127</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>129</v>
+      <c r="E89" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,11 +2610,11 @@
       <c r="D90" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>129</v>
+      <c r="E90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,11 +2630,11 @@
       <c r="D91" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>129</v>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,11 +2650,11 @@
       <c r="D92" t="s">
         <v>127</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>129</v>
+      <c r="E92" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,11 +2670,11 @@
       <c r="D93" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>129</v>
+      <c r="E93" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,11 +2690,11 @@
       <c r="D94" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>129</v>
+      <c r="E94" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,11 +2710,11 @@
       <c r="D95" t="s">
         <v>127</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>129</v>
+      <c r="E95" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,11 +2730,11 @@
       <c r="D96" t="s">
         <v>127</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>129</v>
+      <c r="E96" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2747,11 +2750,11 @@
       <c r="D97" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>129</v>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,11 +2770,11 @@
       <c r="D98" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>129</v>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,11 +2790,11 @@
       <c r="D99" t="s">
         <v>127</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>129</v>
+      <c r="E99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2807,11 +2810,11 @@
       <c r="D100" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>129</v>
+      <c r="E100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2827,11 +2830,11 @@
       <c r="D101" t="s">
         <v>127</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>129</v>
+      <c r="E101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,11 +2850,11 @@
       <c r="D102" t="s">
         <v>127</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>129</v>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,11 +2870,11 @@
       <c r="D103" t="s">
         <v>127</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>129</v>
+      <c r="E103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,11 +2890,11 @@
       <c r="D104" t="s">
         <v>127</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>129</v>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,11 +2910,11 @@
       <c r="D105" t="s">
         <v>127</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>129</v>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,11 +2930,11 @@
       <c r="D106" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>129</v>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,11 +2950,11 @@
       <c r="D107" t="s">
         <v>127</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>129</v>
+      <c r="E107" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,11 +2970,11 @@
       <c r="D108" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>129</v>
+      <c r="E108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,11 +2990,11 @@
       <c r="D109" t="s">
         <v>127</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>129</v>
+      <c r="E109" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,11 +3010,11 @@
       <c r="D110" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>129</v>
+      <c r="E110" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3027,11 +3030,11 @@
       <c r="D111" t="s">
         <v>127</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>129</v>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,11 +3050,11 @@
       <c r="D112" t="s">
         <v>127</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>129</v>
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,11 +3070,11 @@
       <c r="D113" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>129</v>
+      <c r="E113" t="s">
+        <v>127</v>
+      </c>
+      <c r="F113" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,11 +3090,11 @@
       <c r="D114" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>129</v>
+      <c r="E114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,11 +3110,11 @@
       <c r="D115" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>129</v>
+      <c r="E115" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,11 +3130,11 @@
       <c r="D116" t="s">
         <v>127</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>129</v>
+      <c r="E116" t="s">
+        <v>127</v>
+      </c>
+      <c r="F116" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3147,11 +3150,11 @@
       <c r="D117" t="s">
         <v>127</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>129</v>
+      <c r="E117" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3167,11 +3170,11 @@
       <c r="D118" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>129</v>
+      <c r="E118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F118" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,7 +3191,7 @@
       </c>
       <c r="E119" s="4">
         <f>SUMIFS($C2:$C118,E2:E118,"=yes")</f>
-        <v>74542</v>
+        <v>91637</v>
       </c>
       <c r="F119" s="4">
         <f>SUMIFS($C2:$C118,F2:F118,"=yes")</f>
@@ -3202,7 +3205,7 @@
       </c>
       <c r="E120" s="5">
         <f>E119/$C119</f>
-        <v>0.21687279794479697</v>
+        <v>0.26660906046614474</v>
       </c>
       <c r="F120" s="5">
         <f>F119/$C119</f>

--- a/designs/i18n-de/i18n-de-progress.xlsx
+++ b/designs/i18n-de/i18n-de-progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\heikokue-node-red-designs\designs\i18n-de\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{56D5C65D-9282-42F0-B5A7-90EC9D91A72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0913CC-B74F-44F4-A60C-E95A01C18E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-120" windowWidth="49980" windowHeight="21840" xr2:uid="{BBE6853E-83EE-46DB-AB5D-CEB4AC5F861C}"/>
   </bookViews>
@@ -803,8 +803,8 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
         <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,11 +910,11 @@
       <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>129</v>
+      <c r="E5" t="s">
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,11 +930,11 @@
       <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
+      <c r="E6" t="s">
+        <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,11 +950,11 @@
       <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>129</v>
+      <c r="E7" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,11 +970,11 @@
       <c r="D8" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>129</v>
+      <c r="E8" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,11 +990,11 @@
       <c r="D9" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>129</v>
+      <c r="E9" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,11 +1010,11 @@
       <c r="D10" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>129</v>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,11 +1030,11 @@
       <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
+      <c r="E11" t="s">
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,11 +1050,11 @@
       <c r="D12" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>129</v>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="E119" s="4">
         <f>SUMIFS($C2:$C118,E2:E118,"=yes")</f>
-        <v>91637</v>
+        <v>105468</v>
       </c>
       <c r="F119" s="4">
         <f>SUMIFS($C2:$C118,F2:F118,"=yes")</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E120" s="5">
         <f>E119/$C119</f>
-        <v>0.26660906046614474</v>
+        <v>0.30684902811357151</v>
       </c>
       <c r="F120" s="5">
         <f>F119/$C119</f>

--- a/designs/i18n-de/i18n-de-progress.xlsx
+++ b/designs/i18n-de/i18n-de-progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\heikokue-node-red-designs\designs\i18n-de\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0913CC-B74F-44F4-A60C-E95A01C18E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D23B05-047B-4739-B553-1E3CB0A99BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-120" windowWidth="49980" windowHeight="21840" xr2:uid="{BBE6853E-83EE-46DB-AB5D-CEB4AC5F861C}"/>
   </bookViews>
@@ -803,8 +803,8 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,11 +1070,11 @@
       <c r="D13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>129</v>
+      <c r="E13" t="s">
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,11 +1090,11 @@
       <c r="D14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>129</v>
+      <c r="E14" t="s">
+        <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,11 +1110,11 @@
       <c r="D15" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>129</v>
+      <c r="E15" t="s">
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,11 +1130,11 @@
       <c r="D16" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>129</v>
+      <c r="E16" t="s">
+        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,11 +1150,11 @@
       <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>129</v>
+      <c r="E17" t="s">
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,11 +1170,11 @@
       <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>129</v>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,11 +1190,11 @@
       <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>129</v>
+      <c r="E19" t="s">
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,11 +1210,11 @@
       <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>129</v>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,11 +1230,11 @@
       <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>133</v>
+      <c r="E21" t="s">
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,11 +1250,11 @@
       <c r="D22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>129</v>
+      <c r="E22" t="s">
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,11 +1270,11 @@
       <c r="D23" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>129</v>
+      <c r="E23" t="s">
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,11 +1290,11 @@
       <c r="D24" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>129</v>
+      <c r="E24" t="s">
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,11 +1310,11 @@
       <c r="D25" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>129</v>
+      <c r="E25" t="s">
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       <c r="D26" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>129</v>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1350,11 +1350,11 @@
       <c r="D27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>129</v>
+      <c r="E27" t="s">
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,11 +1370,11 @@
       <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>129</v>
+      <c r="E28" t="s">
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,11 +1390,11 @@
       <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>129</v>
+      <c r="E29" t="s">
+        <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,11 +1410,11 @@
       <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>129</v>
+      <c r="E30" t="s">
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,11 +1430,11 @@
       <c r="D31" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>129</v>
+      <c r="E31" t="s">
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,11 +1450,11 @@
       <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>129</v>
+      <c r="E32" t="s">
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,11 +1470,11 @@
       <c r="D33" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>129</v>
+      <c r="E33" t="s">
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,11 +1490,11 @@
       <c r="D34" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>129</v>
+      <c r="E34" t="s">
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,11 +1510,11 @@
       <c r="D35" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>129</v>
+      <c r="E35" t="s">
+        <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1530,11 +1530,11 @@
       <c r="D36" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>129</v>
+      <c r="E36" t="s">
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1550,11 +1550,11 @@
       <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>129</v>
+      <c r="E37" t="s">
+        <v>128</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,11 +1570,11 @@
       <c r="D38" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>129</v>
+      <c r="E38" t="s">
+        <v>128</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,11 +1590,11 @@
       <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>129</v>
+      <c r="E39" t="s">
+        <v>128</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,11 +1610,11 @@
       <c r="D40" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>133</v>
+      <c r="E40" t="s">
+        <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,8 +1633,8 @@
       <c r="E41" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>133</v>
+      <c r="F41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,8 +1653,8 @@
       <c r="E42" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>133</v>
+      <c r="F42" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,8 +1673,8 @@
       <c r="E43" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>133</v>
+      <c r="F43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,8 +1693,8 @@
       <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>133</v>
+      <c r="F44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,8 +1713,8 @@
       <c r="E45" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>133</v>
+      <c r="F45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,8 +1733,8 @@
       <c r="E46" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>133</v>
+      <c r="F46" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,8 +1753,8 @@
       <c r="E47" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>133</v>
+      <c r="F47" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,8 +1773,8 @@
       <c r="E48" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>133</v>
+      <c r="F48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,8 +1793,8 @@
       <c r="E49" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>133</v>
+      <c r="F49" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,8 +1813,8 @@
       <c r="E50" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>133</v>
+      <c r="F50" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,8 +1833,8 @@
       <c r="E51" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>133</v>
+      <c r="F51" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,8 +1853,8 @@
       <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>133</v>
+      <c r="F52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,11 +3191,11 @@
       </c>
       <c r="E119" s="4">
         <f>SUMIFS($C2:$C118,E2:E118,"=yes")</f>
-        <v>105468</v>
+        <v>231288</v>
       </c>
       <c r="F119" s="4">
         <f>SUMIFS($C2:$C118,F2:F118,"=yes")</f>
-        <v>0</v>
+        <v>17095</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="E120" s="5">
         <f>E119/$C119</f>
-        <v>0.30684902811357151</v>
+        <v>0.67291024779394437</v>
       </c>
       <c r="F120" s="5">
         <f>F119/$C119</f>
-        <v>0</v>
+        <v>4.9736262521347753E-2</v>
       </c>
     </row>
   </sheetData>
